--- a/biology/Médecine/Ligament_rond_de_l'utérus/Ligament_rond_de_l'utérus.xlsx
+++ b/biology/Médecine/Ligament_rond_de_l'utérus/Ligament_rond_de_l'utérus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_rond_de_l%27ut%C3%A9rus</t>
+          <t>Ligament_rond_de_l'utérus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament rond de l'utérus en anatomie humaine est un ligament qui oriente l'utérus vers l'avant, en antéversion.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_rond_de_l%27ut%C3%A9rus</t>
+          <t>Ligament_rond_de_l'utérus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine embryologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament rond de l'utérus est issu d'une structure ligamentaire embryonnaire, le gubernaculum ovarii, qui a permis au cours de la croissance intra-utérine de faire descendre le mésonéphros et la crête génitale dans leur position finale, pelvienne. 
 Chez l'homme cette structure est devenue le gubernaculum testis.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_rond_de_l%27ut%C3%A9rus</t>
+          <t>Ligament_rond_de_l'utérus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Anatomie[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament rond de l'utérus est composé d'une partie intra-abdominale et d'une partie extra-abdominale, le canal inguinal séparant ces deux parties. Le ligament rond de l'utérus est inséré sur les cornes utérines à la face ventrale et crâniale de l'utérus à proximité de la jonction tubo-utérine.
 Il chemine ensuite dans la cavité abdominale, à la face ventrale du ligament large avant de traverser le canal inguinal.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_rond_de_l%27ut%C3%A9rus</t>
+          <t>Ligament_rond_de_l'utérus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa principale fonction est de maintenir l'utérus dans son antéversion, c'est-à-dire le fond de l'utérus vers l'avant et le col de l'utérus vers l'arrière. Parmi les autres moyens d'orientation on peut ajouter le ligament utéro-sacré.
 </t>
